--- a/Reporte_Diario.xlsx
+++ b/Reporte_Diario.xlsx
@@ -174,7 +174,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n" s="3">
-        <v>720.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -202,7 +202,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="n" s="3">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="8">

--- a/Reporte_Diario.xlsx
+++ b/Reporte_Diario.xlsx
@@ -17,7 +17,7 @@
     <t>REPORTE DIARIO</t>
   </si>
   <si>
-    <t>17 de enero del 2025</t>
+    <t>20 de enero del 2025</t>
   </si>
   <si>
     <t>CUENTA</t>
@@ -174,7 +174,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n" s="3">
-        <v>1980.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -202,7 +202,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="n" s="3">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -210,7 +210,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n" s="3">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="3"/>
     </row>
